--- a/results/gurobi_cplex_comparison/seed_10_k_45.xlsx
+++ b/results/gurobi_cplex_comparison/seed_10_k_45.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.017</v>
+        <v>1.265</v>
       </c>
       <c r="F2">
-        <v>0.033</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.014</v>
+        <v>1.744</v>
       </c>
       <c r="F3">
-        <v>0.042</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.038</v>
+        <v>2.401</v>
       </c>
       <c r="F4">
-        <v>0.07099999999999999</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.023</v>
+        <v>3.178</v>
       </c>
       <c r="F5">
-        <v>0.065</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.057</v>
+        <v>3.97</v>
       </c>
       <c r="F6">
-        <v>0.079</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.051</v>
+        <v>4.932</v>
       </c>
       <c r="F7">
-        <v>0.096</v>
+        <v>1.076</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.18</v>
+        <v>6.151</v>
       </c>
       <c r="F8">
-        <v>84.68000000000001</v>
+        <v>99.685</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.037</v>
+        <v>7.053</v>
       </c>
       <c r="F9">
-        <v>0.08599999999999999</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.137</v>
+        <v>8.446999999999999</v>
       </c>
       <c r="F10">
-        <v>121.43</v>
+        <v>66.51300000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.059</v>
+        <v>9.628</v>
       </c>
       <c r="F11">
-        <v>111.384</v>
+        <v>90.03700000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.095</v>
+        <v>11.152</v>
       </c>
       <c r="F12">
-        <v>72.60599999999999</v>
+        <v>94.10299999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.061</v>
+        <v>12.541</v>
       </c>
       <c r="F13">
-        <v>28.457</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.196</v>
+        <v>14.369</v>
       </c>
       <c r="F14">
-        <v>81.10899999999999</v>
+        <v>105.472</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.188</v>
+        <v>16.063</v>
       </c>
       <c r="F15">
-        <v>67.715</v>
+        <v>72.602</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.274</v>
+        <v>18.118</v>
       </c>
       <c r="F16">
-        <v>97.026</v>
+        <v>144.223</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9340000000000001</v>
+        <v>20.623</v>
       </c>
       <c r="F17">
-        <v>152.287</v>
+        <v>185.665</v>
       </c>
     </row>
   </sheetData>
